--- a/po_analysis_by_asin/B0BZHFLRLM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHFLRLM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,257 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45369</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B33" t="n">
         <v>10</v>
       </c>
     </row>
@@ -477,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,9 +739,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>170</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZHFLRLM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHFLRLM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,22 +690,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45375.99999999999</v>
-      </c>
-      <c r="B33" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -717,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,14 +785,6 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>170</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0BZHFLRLM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHFLRLM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -717,7 +718,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -783,6 +784,579 @@
       </c>
       <c r="B9" t="n">
         <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.77396454417753</v>
+      </c>
+      <c r="D2" t="n">
+        <v>227.2491891578139</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>110</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-16.82661761016323</v>
+      </c>
+      <c r="D3" t="n">
+        <v>231.1432876763967</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>111</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-8.805329138251052</v>
+      </c>
+      <c r="D4" t="n">
+        <v>235.6814139833062</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>112</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-20.40749526096801</v>
+      </c>
+      <c r="D5" t="n">
+        <v>224.0192970578671</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>113</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7.362565240712987</v>
+      </c>
+      <c r="D6" t="n">
+        <v>238.2697645057842</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>114</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.932392449790832</v>
+      </c>
+      <c r="D7" t="n">
+        <v>233.1294614406904</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>116</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.59572439368222</v>
+      </c>
+      <c r="D8" t="n">
+        <v>246.4469795173899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>118</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1444827947117737</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.8566901052019</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>119</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.48201626162468</v>
+      </c>
+      <c r="D10" t="n">
+        <v>250.2114896628985</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4.93889578848559</v>
+      </c>
+      <c r="D11" t="n">
+        <v>237.6166873421571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>121</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-12.8149792870835</v>
+      </c>
+      <c r="D12" t="n">
+        <v>243.902720394745</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>122</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.411308222595669</v>
+      </c>
+      <c r="D13" t="n">
+        <v>246.9811820815492</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>123</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.71231501715023</v>
+      </c>
+      <c r="D14" t="n">
+        <v>248.3939189604946</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>124</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11.00275314351658</v>
+      </c>
+      <c r="D15" t="n">
+        <v>260.955582583059</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>125</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.073865380734147</v>
+      </c>
+      <c r="D16" t="n">
+        <v>242.6397454793093</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>126</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.141600523003126</v>
+      </c>
+      <c r="D17" t="n">
+        <v>248.374471536779</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>128</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.497678991867557</v>
+      </c>
+      <c r="D18" t="n">
+        <v>257.9063774523412</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>129</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.73725152005726</v>
+      </c>
+      <c r="D19" t="n">
+        <v>247.7216839771135</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>130</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14.04117961126989</v>
+      </c>
+      <c r="D20" t="n">
+        <v>262.7767217993082</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>131</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.17898173160676</v>
+      </c>
+      <c r="D21" t="n">
+        <v>249.6758631711655</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>132</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12.74257082999314</v>
+      </c>
+      <c r="D22" t="n">
+        <v>255.4594027885977</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>133</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.31010185498169</v>
+      </c>
+      <c r="D23" t="n">
+        <v>249.1572316701314</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>134</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.61292434401801</v>
+      </c>
+      <c r="D24" t="n">
+        <v>263.5466394310242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>138</v>
+      </c>
+      <c r="C25" t="n">
+        <v>13.93651487144441</v>
+      </c>
+      <c r="D25" t="n">
+        <v>253.1215462057614</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>139</v>
+      </c>
+      <c r="C26" t="n">
+        <v>23.15898929144189</v>
+      </c>
+      <c r="D26" t="n">
+        <v>267.5230833913658</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>140</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16.26203796348327</v>
+      </c>
+      <c r="D27" t="n">
+        <v>273.5929141654444</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>141</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21.65387774440546</v>
+      </c>
+      <c r="D28" t="n">
+        <v>269.9402996274665</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>142</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.421966295316706</v>
+      </c>
+      <c r="D29" t="n">
+        <v>263.2187995166277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>143</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15.34618805161064</v>
+      </c>
+      <c r="D30" t="n">
+        <v>256.9496014068784</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>144</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14.2137067370449</v>
+      </c>
+      <c r="D31" t="n">
+        <v>263.3872514432133</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>146</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.01583527533042</v>
+      </c>
+      <c r="D32" t="n">
+        <v>273.0530499782628</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>147</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30.05490012908335</v>
+      </c>
+      <c r="D33" t="n">
+        <v>264.5096708240524</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>148</v>
+      </c>
+      <c r="C34" t="n">
+        <v>19.79306427619136</v>
+      </c>
+      <c r="D34" t="n">
+        <v>261.2877412391096</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>149</v>
+      </c>
+      <c r="C35" t="n">
+        <v>29.74679090873617</v>
+      </c>
+      <c r="D35" t="n">
+        <v>272.6015932038127</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>150</v>
+      </c>
+      <c r="C36" t="n">
+        <v>29.60442444370389</v>
+      </c>
+      <c r="D36" t="n">
+        <v>270.6509648492189</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>151</v>
+      </c>
+      <c r="C37" t="n">
+        <v>24.44355469854788</v>
+      </c>
+      <c r="D37" t="n">
+        <v>270.6448437129778</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>152</v>
+      </c>
+      <c r="C38" t="n">
+        <v>39.87699716054323</v>
+      </c>
+      <c r="D38" t="n">
+        <v>274.3677155368827</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>153</v>
+      </c>
+      <c r="C39" t="n">
+        <v>29.77154341415017</v>
+      </c>
+      <c r="D39" t="n">
+        <v>281.6114069133033</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZHFLRLM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHFLRLM_po_data.xlsx
@@ -797,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,16 +816,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -834,12 +824,6 @@
       <c r="B2" t="n">
         <v>109</v>
       </c>
-      <c r="C2" t="n">
-        <v>-10.77396454417753</v>
-      </c>
-      <c r="D2" t="n">
-        <v>227.2491891578139</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -848,12 +832,6 @@
       <c r="B3" t="n">
         <v>110</v>
       </c>
-      <c r="C3" t="n">
-        <v>-16.82661761016323</v>
-      </c>
-      <c r="D3" t="n">
-        <v>231.1432876763967</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -862,12 +840,6 @@
       <c r="B4" t="n">
         <v>111</v>
       </c>
-      <c r="C4" t="n">
-        <v>-8.805329138251052</v>
-      </c>
-      <c r="D4" t="n">
-        <v>235.6814139833062</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -876,12 +848,6 @@
       <c r="B5" t="n">
         <v>112</v>
       </c>
-      <c r="C5" t="n">
-        <v>-20.40749526096801</v>
-      </c>
-      <c r="D5" t="n">
-        <v>224.0192970578671</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -890,12 +856,6 @@
       <c r="B6" t="n">
         <v>113</v>
       </c>
-      <c r="C6" t="n">
-        <v>-7.362565240712987</v>
-      </c>
-      <c r="D6" t="n">
-        <v>238.2697645057842</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -904,12 +864,6 @@
       <c r="B7" t="n">
         <v>114</v>
       </c>
-      <c r="C7" t="n">
-        <v>-8.932392449790832</v>
-      </c>
-      <c r="D7" t="n">
-        <v>233.1294614406904</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -918,12 +872,6 @@
       <c r="B8" t="n">
         <v>116</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.59572439368222</v>
-      </c>
-      <c r="D8" t="n">
-        <v>246.4469795173899</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -932,12 +880,6 @@
       <c r="B9" t="n">
         <v>118</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.1444827947117737</v>
-      </c>
-      <c r="D9" t="n">
-        <v>240.8566901052019</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -946,12 +888,6 @@
       <c r="B10" t="n">
         <v>119</v>
       </c>
-      <c r="C10" t="n">
-        <v>-5.48201626162468</v>
-      </c>
-      <c r="D10" t="n">
-        <v>250.2114896628985</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -960,12 +896,6 @@
       <c r="B11" t="n">
         <v>120</v>
       </c>
-      <c r="C11" t="n">
-        <v>-4.93889578848559</v>
-      </c>
-      <c r="D11" t="n">
-        <v>237.6166873421571</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -974,12 +904,6 @@
       <c r="B12" t="n">
         <v>121</v>
       </c>
-      <c r="C12" t="n">
-        <v>-12.8149792870835</v>
-      </c>
-      <c r="D12" t="n">
-        <v>243.902720394745</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -988,12 +912,6 @@
       <c r="B13" t="n">
         <v>122</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.411308222595669</v>
-      </c>
-      <c r="D13" t="n">
-        <v>246.9811820815492</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1002,12 +920,6 @@
       <c r="B14" t="n">
         <v>123</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.71231501715023</v>
-      </c>
-      <c r="D14" t="n">
-        <v>248.3939189604946</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1016,12 +928,6 @@
       <c r="B15" t="n">
         <v>124</v>
       </c>
-      <c r="C15" t="n">
-        <v>11.00275314351658</v>
-      </c>
-      <c r="D15" t="n">
-        <v>260.955582583059</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1030,12 +936,6 @@
       <c r="B16" t="n">
         <v>125</v>
       </c>
-      <c r="C16" t="n">
-        <v>-2.073865380734147</v>
-      </c>
-      <c r="D16" t="n">
-        <v>242.6397454793093</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1044,12 +944,6 @@
       <c r="B17" t="n">
         <v>126</v>
       </c>
-      <c r="C17" t="n">
-        <v>8.141600523003126</v>
-      </c>
-      <c r="D17" t="n">
-        <v>248.374471536779</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1058,12 +952,6 @@
       <c r="B18" t="n">
         <v>128</v>
       </c>
-      <c r="C18" t="n">
-        <v>7.497678991867557</v>
-      </c>
-      <c r="D18" t="n">
-        <v>257.9063774523412</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1072,12 +960,6 @@
       <c r="B19" t="n">
         <v>129</v>
       </c>
-      <c r="C19" t="n">
-        <v>14.73725152005726</v>
-      </c>
-      <c r="D19" t="n">
-        <v>247.7216839771135</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1086,12 +968,6 @@
       <c r="B20" t="n">
         <v>130</v>
       </c>
-      <c r="C20" t="n">
-        <v>14.04117961126989</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7767217993082</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1100,12 +976,6 @@
       <c r="B21" t="n">
         <v>131</v>
       </c>
-      <c r="C21" t="n">
-        <v>4.17898173160676</v>
-      </c>
-      <c r="D21" t="n">
-        <v>249.6758631711655</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1114,12 +984,6 @@
       <c r="B22" t="n">
         <v>132</v>
       </c>
-      <c r="C22" t="n">
-        <v>12.74257082999314</v>
-      </c>
-      <c r="D22" t="n">
-        <v>255.4594027885977</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1128,12 +992,6 @@
       <c r="B23" t="n">
         <v>133</v>
       </c>
-      <c r="C23" t="n">
-        <v>8.31010185498169</v>
-      </c>
-      <c r="D23" t="n">
-        <v>249.1572316701314</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1142,12 +1000,6 @@
       <c r="B24" t="n">
         <v>134</v>
       </c>
-      <c r="C24" t="n">
-        <v>24.61292434401801</v>
-      </c>
-      <c r="D24" t="n">
-        <v>263.5466394310242</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1156,12 +1008,6 @@
       <c r="B25" t="n">
         <v>138</v>
       </c>
-      <c r="C25" t="n">
-        <v>13.93651487144441</v>
-      </c>
-      <c r="D25" t="n">
-        <v>253.1215462057614</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1170,12 +1016,6 @@
       <c r="B26" t="n">
         <v>139</v>
       </c>
-      <c r="C26" t="n">
-        <v>23.15898929144189</v>
-      </c>
-      <c r="D26" t="n">
-        <v>267.5230833913658</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1184,12 +1024,6 @@
       <c r="B27" t="n">
         <v>140</v>
       </c>
-      <c r="C27" t="n">
-        <v>16.26203796348327</v>
-      </c>
-      <c r="D27" t="n">
-        <v>273.5929141654444</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1198,12 +1032,6 @@
       <c r="B28" t="n">
         <v>141</v>
       </c>
-      <c r="C28" t="n">
-        <v>21.65387774440546</v>
-      </c>
-      <c r="D28" t="n">
-        <v>269.9402996274665</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1212,12 +1040,6 @@
       <c r="B29" t="n">
         <v>142</v>
       </c>
-      <c r="C29" t="n">
-        <v>8.421966295316706</v>
-      </c>
-      <c r="D29" t="n">
-        <v>263.2187995166277</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1226,12 +1048,6 @@
       <c r="B30" t="n">
         <v>143</v>
       </c>
-      <c r="C30" t="n">
-        <v>15.34618805161064</v>
-      </c>
-      <c r="D30" t="n">
-        <v>256.9496014068784</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1240,12 +1056,6 @@
       <c r="B31" t="n">
         <v>144</v>
       </c>
-      <c r="C31" t="n">
-        <v>14.2137067370449</v>
-      </c>
-      <c r="D31" t="n">
-        <v>263.3872514432133</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1254,12 +1064,6 @@
       <c r="B32" t="n">
         <v>146</v>
       </c>
-      <c r="C32" t="n">
-        <v>33.01583527533042</v>
-      </c>
-      <c r="D32" t="n">
-        <v>273.0530499782628</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1268,12 +1072,6 @@
       <c r="B33" t="n">
         <v>147</v>
       </c>
-      <c r="C33" t="n">
-        <v>30.05490012908335</v>
-      </c>
-      <c r="D33" t="n">
-        <v>264.5096708240524</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1282,12 +1080,6 @@
       <c r="B34" t="n">
         <v>148</v>
       </c>
-      <c r="C34" t="n">
-        <v>19.79306427619136</v>
-      </c>
-      <c r="D34" t="n">
-        <v>261.2877412391096</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1296,12 +1088,6 @@
       <c r="B35" t="n">
         <v>149</v>
       </c>
-      <c r="C35" t="n">
-        <v>29.74679090873617</v>
-      </c>
-      <c r="D35" t="n">
-        <v>272.6015932038127</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1310,12 +1096,6 @@
       <c r="B36" t="n">
         <v>150</v>
       </c>
-      <c r="C36" t="n">
-        <v>29.60442444370389</v>
-      </c>
-      <c r="D36" t="n">
-        <v>270.6509648492189</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1324,12 +1104,6 @@
       <c r="B37" t="n">
         <v>151</v>
       </c>
-      <c r="C37" t="n">
-        <v>24.44355469854788</v>
-      </c>
-      <c r="D37" t="n">
-        <v>270.6448437129778</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1338,12 +1112,6 @@
       <c r="B38" t="n">
         <v>152</v>
       </c>
-      <c r="C38" t="n">
-        <v>39.87699716054323</v>
-      </c>
-      <c r="D38" t="n">
-        <v>274.3677155368827</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1351,12 +1119,6 @@
       </c>
       <c r="B39" t="n">
         <v>153</v>
-      </c>
-      <c r="C39" t="n">
-        <v>29.77154341415017</v>
-      </c>
-      <c r="D39" t="n">
-        <v>281.6114069133033</v>
       </c>
     </row>
   </sheetData>
